--- a/Biên bản họp.xlsx
+++ b/Biên bản họp.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E922BAE-9A92-457F-AA68-022EE777175F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF6DC8EE-BD8E-43F5-92CA-E8BE82739194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="79">
   <si>
     <t>chất lượng</t>
   </si>
@@ -228,6 +228,33 @@
   </si>
   <si>
     <t>đẩy nhanh tiến độ khách hàng( xong bản hợp đồng), hoàn thành product backlog</t>
+  </si>
+  <si>
+    <t>20h30-20h45 ngày 10/1/2023</t>
+  </si>
+  <si>
+    <t>cố gắng hoàn thành bản hợp đồng dự án</t>
+  </si>
+  <si>
+    <t>họp với khách hàng, làm sprint back log và hồ sơ tài liệu của dự án</t>
+  </si>
+  <si>
+    <t>hỗ trợ, đóng góp ý kiến thiết kế</t>
+  </si>
+  <si>
+    <t>đang dần hoàn thiện bản hợp đồng dự án</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thiết kế xong 2/3 màn hình ứng dụng </t>
+  </si>
+  <si>
+    <t>thiết kế hoàn tất giao diện</t>
+  </si>
+  <si>
+    <t>bắt đầu bắt tay vào tạo dự án</t>
+  </si>
+  <si>
+    <t>đã trao đổi về bản phác thảo ứng dụng với khách hàng , làm xong product backlog</t>
   </si>
 </sst>
 </file>
@@ -564,65 +591,65 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1130,56 +1157,56 @@
       <c r="B2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="27"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="30"/>
       <c r="P2"/>
       <c r="Q2"/>
       <c r="R2"/>
     </row>
     <row r="3" spans="2:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="24" t="s">
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="22" t="s">
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="22"/>
-      <c r="N3" s="24" t="s">
+      <c r="M3" s="24"/>
+      <c r="N3" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="17" t="s">
+      <c r="O3" s="27" t="s">
         <v>27</v>
       </c>
       <c r="P3"/>
@@ -1187,7 +1214,7 @@
       <c r="R3"/>
     </row>
     <row r="4" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="21"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="9" t="s">
         <v>7</v>
       </c>
@@ -1197,9 +1224,9 @@
       <c r="E4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
       <c r="I4" s="9" t="s">
         <v>22</v>
       </c>
@@ -1215,8 +1242,8 @@
       <c r="M4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="N4" s="25"/>
-      <c r="O4" s="17"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="27"/>
       <c r="P4"/>
       <c r="Q4"/>
       <c r="R4"/>
@@ -1419,56 +1446,56 @@
       <c r="B13" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="27"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="30"/>
       <c r="P13"/>
       <c r="Q13"/>
       <c r="R13"/>
     </row>
     <row r="14" spans="2:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="24" t="s">
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="G14" s="24" t="s">
+      <c r="G14" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="24" t="s">
+      <c r="H14" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="I14" s="22" t="s">
+      <c r="I14" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="22" t="s">
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="M14" s="22"/>
-      <c r="N14" s="24" t="s">
+      <c r="M14" s="24"/>
+      <c r="N14" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="O14" s="17" t="s">
+      <c r="O14" s="27" t="s">
         <v>27</v>
       </c>
       <c r="P14"/>
@@ -1476,7 +1503,7 @@
       <c r="R14"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B15" s="21"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="9" t="s">
         <v>7</v>
       </c>
@@ -1486,9 +1513,9 @@
       <c r="E15" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
       <c r="I15" s="9" t="s">
         <v>22</v>
       </c>
@@ -1504,8 +1531,8 @@
       <c r="M15" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="N15" s="25"/>
-      <c r="O15" s="17"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="27"/>
       <c r="P15"/>
       <c r="Q15"/>
       <c r="R15"/>
@@ -1830,12 +1857,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="C2:O2"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
     <mergeCell ref="C13:O13"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:E14"/>
@@ -1846,10 +1871,12 @@
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C2:O2"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -1858,10 +1885,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F3A3B6C-19F0-41E9-AC01-9E56747ED350}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1870,9 +1897,9 @@
     <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.88671875" style="18" customWidth="1"/>
     <col min="6" max="6" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.44140625" style="18" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.88671875" bestFit="1" customWidth="1"/>
@@ -1887,58 +1914,58 @@
       <c r="A2" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="27"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="30"/>
     </row>
     <row r="3" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="30" t="s">
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="22" t="s">
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="22"/>
-      <c r="M3" s="24" t="s">
+      <c r="L3" s="24"/>
+      <c r="M3" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="17" t="s">
+      <c r="N3" s="27" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="9" t="s">
         <v>7</v>
       </c>
@@ -1948,9 +1975,9 @@
       <c r="D4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="31"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="34"/>
       <c r="H4" s="9" t="s">
         <v>22</v>
       </c>
@@ -1966,40 +1993,40 @@
       <c r="L4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="25"/>
-      <c r="N4" s="17"/>
-    </row>
-    <row r="5" spans="1:14" s="29" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
+      <c r="M4" s="26"/>
+      <c r="N4" s="27"/>
+    </row>
+    <row r="5" spans="1:14" s="18" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="34">
-        <v>1</v>
-      </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="28" t="s">
+      <c r="B5" s="21">
+        <v>1</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="H5" s="34">
-        <v>2</v>
-      </c>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="36">
+      <c r="H5" s="21">
+        <v>2</v>
+      </c>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="23">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>48</v>
       </c>
@@ -2008,13 +2035,13 @@
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="17" t="s">
         <v>63</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="17" t="s">
         <v>59</v>
       </c>
       <c r="H6" s="9">
@@ -2038,13 +2065,13 @@
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="17" t="s">
         <v>62</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="17" t="s">
         <v>60</v>
       </c>
       <c r="H7" s="9">
@@ -2059,7 +2086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>49</v>
       </c>
@@ -2068,14 +2095,14 @@
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="17" t="s">
         <v>65</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="28" t="s">
-        <v>68</v>
+      <c r="G8" s="17" t="s">
+        <v>71</v>
       </c>
       <c r="H8" s="9">
         <v>2</v>
@@ -2089,7 +2116,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>50</v>
       </c>
@@ -2098,13 +2125,13 @@
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="17" t="s">
         <v>63</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="17" t="s">
         <v>59</v>
       </c>
       <c r="H9" s="9">
@@ -2119,7 +2146,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>51</v>
       </c>
@@ -2128,13 +2155,13 @@
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="19" t="s">
         <v>63</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="32" t="s">
+      <c r="G10" s="19" t="s">
         <v>59</v>
       </c>
       <c r="H10" s="11">
@@ -2149,8 +2176,285 @@
         <v>3</v>
       </c>
     </row>
+    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:14" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="30"/>
+    </row>
+    <row r="14" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" s="24"/>
+      <c r="M14" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="N14" s="27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="31"/>
+      <c r="B15" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="34"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M15" s="26"/>
+      <c r="N15" s="27"/>
+    </row>
+    <row r="16" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="21">
+        <v>1</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" s="21">
+        <v>2</v>
+      </c>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="9">
+        <v>1</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="H17" s="9">
+        <v>2</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="9">
+        <v>1</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18" s="9">
+        <v>2</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="9">
+        <v>1</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H19" s="9">
+        <v>2</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="9">
+        <v>1</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="H20" s="9">
+        <v>2</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="11">
+        <v>1</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="H21" s="11">
+        <v>2</v>
+      </c>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="12">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="20">
+    <mergeCell ref="B13:N13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="N14:N15"/>
     <mergeCell ref="B2:N2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:D3"/>
@@ -2200,34 +2504,34 @@
       <c r="B2" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="20"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="36"/>
     </row>
     <row r="3" spans="2:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
       <c r="F3" s="16" t="s">
         <v>43</v>
       </c>
@@ -2237,29 +2541,29 @@
       <c r="H3" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22" t="s">
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="22" t="s">
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="24" t="s">
+      <c r="P3" s="24"/>
+      <c r="Q3" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="R3" s="17" t="s">
+      <c r="R3" s="27" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="21"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="9" t="s">
         <v>7</v>
       </c>
@@ -2296,8 +2600,8 @@
       <c r="P4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="17"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="27"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
